--- a/imageCreationExcel/back/darkyobi/darkyobi_1.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_1.xlsx
@@ -552,8 +552,16 @@
       <c r="F3" t="n">
         <v>28.53954547591701</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
@@ -588,8 +596,16 @@
       <c r="F4" t="n">
         <v>25.61689926884058</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
@@ -666,8 +682,16 @@
       <c r="F6" t="n">
         <v>19.49701571829025</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
@@ -702,8 +726,16 @@
       <c r="F7" t="n">
         <v>29.51710809714869</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
@@ -738,8 +770,16 @@
       <c r="F8" t="n">
         <v>19.59420871740531</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
@@ -816,8 +856,16 @@
       <c r="F10" t="n">
         <v>0.7345436749470251</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
@@ -894,8 +942,16 @@
       <c r="F12" t="n">
         <v>0.6268538864184861</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
@@ -1056,8 +1112,16 @@
       <c r="F16" t="n">
         <v>24.70169122647185</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
@@ -1176,8 +1240,16 @@
       <c r="F19" t="n">
         <v>8.984056880481855</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
@@ -1296,8 +1368,16 @@
       <c r="F22" t="n">
         <v>11.5694412172591</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
@@ -1332,8 +1412,16 @@
       <c r="F23" t="n">
         <v>0.1953821438052598</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
@@ -1368,8 +1456,16 @@
       <c r="F24" t="n">
         <v>1.038631503407693</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
@@ -1404,8 +1500,16 @@
       <c r="F25" t="n">
         <v>11.18619407703792</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
@@ -1482,8 +1586,16 @@
       <c r="F27" t="n">
         <v>8.133162918708534</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
@@ -1518,8 +1630,16 @@
       <c r="F28" t="n">
         <v>1.043787681180748</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
@@ -1596,8 +1716,16 @@
       <c r="F30" t="n">
         <v>26.17571130902776</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
@@ -1674,8 +1802,16 @@
       <c r="F32" t="n">
         <v>26.92727133350851</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
@@ -1920,8 +2056,16 @@
       <c r="F38" t="n">
         <v>0.1182159662176887</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
@@ -1998,8 +2142,16 @@
       <c r="F40" t="n">
         <v>21.38493263119069</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
@@ -2160,8 +2312,16 @@
       <c r="F44" t="n">
         <v>0.9795854874109862</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
@@ -2196,8 +2356,16 @@
       <c r="F45" t="n">
         <v>0.6705381125708589</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
@@ -2274,8 +2442,16 @@
       <c r="F47" t="n">
         <v>19.22296185912597</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
@@ -2310,8 +2486,16 @@
       <c r="F48" t="n">
         <v>0.8360725438665401</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
